--- a/03.Clasificacion/Parametros Intervalos/Parametros_Intervalos.xlsx
+++ b/03.Clasificacion/Parametros Intervalos/Parametros_Intervalos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>i</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -622,6 +627,9 @@
       <c r="W2" t="n">
         <v>146.9822867307076</v>
       </c>
+      <c r="X2" t="n">
+        <v>0.1397170025957296</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -695,6 +703,9 @@
       <c r="W3" t="n">
         <v>151.0876170317842</v>
       </c>
+      <c r="X3" t="n">
+        <v>0.1404160009589073</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -768,6 +779,9 @@
       <c r="W4" t="n">
         <v>400.6605044848763</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.3580522828283076</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -841,6 +855,9 @@
       <c r="W5" t="n">
         <v>408.75076987367</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.2386169117768068</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -914,6 +931,9 @@
       <c r="W6" t="n">
         <v>402.2130085019476</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.2506000052971636</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -987,6 +1007,9 @@
       <c r="W7" t="n">
         <v>287.8294460390285</v>
       </c>
+      <c r="X7" t="n">
+        <v>0.1300630122182686</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1060,6 +1083,9 @@
       <c r="W8" t="n">
         <v>819.306265162257</v>
       </c>
+      <c r="X8" t="n">
+        <v>0.420372634767705</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1133,6 +1159,9 @@
       <c r="W9" t="n">
         <v>844.0475045273336</v>
       </c>
+      <c r="X9" t="n">
+        <v>0.4725909879772304</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1205,6 +1234,9 @@
       </c>
       <c r="W10" t="n">
         <v>604.8390470485867</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2372848360331843</v>
       </c>
     </row>
   </sheetData>
